--- a/biology/Zoologie/Ammonitoceras/Ammonitoceras.xlsx
+++ b/biology/Zoologie/Ammonitoceras/Ammonitoceras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammonitoceras Dumas, 1876 est un genre fossile d'ammonites de la famille des Ancyloceratidae, du Crétacé inférieur (Aptien inférieur à Aptien supérieur). Le genre est connu en Europe et en Afrique.
-L'espèce type est Ammonitoceras ucetiae, décrite par le paléontologue français Émilien Dumas en 1876[1].
+L'espèce type est Ammonitoceras ucetiae, décrite par le paléontologue français Émilien Dumas en 1876.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ammonite de grande taille (44 cm de diamètre pour l'espèce A. dumasi Delanoy et al.[2], 2017). « Spire se déroulant faiblement au niveau de
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ammonite de grande taille (44 cm de diamètre pour l'espèce A. dumasi Delanoy et al., 2017). « Spire se déroulant faiblement au niveau de
 la loge d’habitation. Ornementation d’abord constituée de côtes principales portant un tubercule péridorsal et un tubercule latéral donnant naissance à 2-3 côtes secondaires, et de côtes intercalaires en nombre variable et non tuberculées ».
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Liste de genres de la famille Ancylocertidae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Liste des genres selon GBIF       (28 octobre 2021)[3] :
+Liste des genres selon GBIF       (28 octobre 2021) :
 genre † Acanthoptychoceras Manolov, 1962
 genre † Acrioceras Hyatt, 1900
 genre † Ammonitoceras Dumas, 1876
